--- a/inputs/watershed_soil_characteristics.xlsx
+++ b/inputs/watershed_soil_characteristics.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tabu-aly\Documents\Balance_TA\POND_IT_Guidebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BFF7B9-213B-4880-B75C-8609528E2688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AE371-2FDD-40BF-8BE2-E124408E04BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{488D43AE-73A7-4BEE-83A7-20873C9EF54D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" activeTab="1" xr2:uid="{488D43AE-73A7-4BEE-83A7-20873C9EF54D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eagle" sheetId="1" r:id="rId1"/>
+    <sheet name="CHB-03" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Map unit symbol</t>
   </si>
@@ -47,33 +48,29 @@
     <t>Percent of AOI</t>
   </si>
   <si>
-    <t>CmE</t>
-  </si>
-  <si>
-    <t>Climara stony clay, 15 to 50 percent slopes</t>
-  </si>
-  <si>
     <t>Profile Thickness (inches)</t>
   </si>
   <si>
     <t>Depth Weighted Water Capacity</t>
+  </si>
+  <si>
+    <t>GcE</t>
+  </si>
+  <si>
+    <t>Gaviota loam, 15 to 30 percent slopes</t>
+  </si>
+  <si>
+    <t>GmF</t>
+  </si>
+  <si>
+    <t>Gaviota-Los Gatos complex, 30 to 50 percent slopes, MLRA 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +96,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -115,17 +110,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,23 +424,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8375F-A801-4209-82CF-914571DDDE71}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -470,39 +458,53 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>31</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
@@ -510,4 +512,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA339AC-DCF1-40DC-A8D9-DBB4F83997A8}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/watershed_soil_characteristics.xlsx
+++ b/inputs/watershed_soil_characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AE371-2FDD-40BF-8BE2-E124408E04BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DCA82F-2DCE-437D-8DBA-99D5C91F08DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" activeTab="1" xr2:uid="{488D43AE-73A7-4BEE-83A7-20873C9EF54D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{488D43AE-73A7-4BEE-83A7-20873C9EF54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Map unit symbol</t>
-  </si>
-  <si>
-    <t>Map unit name</t>
-  </si>
-  <si>
-    <t>Acres in AOI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Percent of AOI</t>
   </si>
@@ -52,18 +43,6 @@
   </si>
   <si>
     <t>Depth Weighted Water Capacity</t>
-  </si>
-  <si>
-    <t>GcE</t>
-  </si>
-  <si>
-    <t>Gaviota loam, 15 to 30 percent slopes</t>
-  </si>
-  <si>
-    <t>GmF</t>
-  </si>
-  <si>
-    <t>Gaviota-Los Gatos complex, 30 to 50 percent slopes, MLRA 15</t>
   </si>
 </sst>
 </file>
@@ -425,88 +404,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC8375F-A801-4209-82CF-914571DDDE71}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.28699999999999998</v>
       </c>
       <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>0.15</v>
       </c>
-      <c r="D2" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B3" s="3">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="F3" s="2">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,14 +466,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA339AC-DCF1-40DC-A8D9-DBB4F83997A8}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>